--- a/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
+++ b/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
@@ -8340,7 +8340,7 @@
         <v>497</v>
       </c>
       <c r="G278" t="n">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8478,7 +8478,7 @@
         <v>509</v>
       </c>
       <c r="G284" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8501,7 +8501,7 @@
         <v>511</v>
       </c>
       <c r="G285" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8524,7 +8524,7 @@
         <v>161</v>
       </c>
       <c r="G286" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="287" spans="1:7">

--- a/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
+++ b/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t>中华人民共和国国务院办公厅</t>
   </si>
@@ -1584,12 +1584,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/General_Office_of_the_State_Council</t>
@@ -1944,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8524,7 +8518,7 @@
         <v>161</v>
       </c>
       <c r="G286" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8938,29 +8932,6 @@
         <v>524</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" t="n">
-        <v>304</v>
-      </c>
-      <c r="E305" t="s">
-        <v>525</v>
-      </c>
-      <c r="F305" t="s">
-        <v>526</v>
-      </c>
-      <c r="G305" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
+++ b/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="527">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
   <si>
     <t>中华人民共和国国务院办公厅</t>
   </si>
@@ -1584,12 +1584,6 @@
   </si>
   <si>
     <t>阅读</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/Project:%E4%B8%8A%E4%BC%A0</t>
-  </si>
-  <si>
-    <t>上传图像或多媒体文件[u]</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/General_Office_of_the_State_Council</t>
@@ -1944,7 +1938,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G305"/>
+  <dimension ref="A1:G304"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8340,7 +8334,7 @@
         <v>497</v>
       </c>
       <c r="G278" t="n">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8938,29 +8932,6 @@
         <v>524</v>
       </c>
       <c r="G304" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="305" spans="1:7">
-      <c r="A305" s="1" t="n">
-        <v>303</v>
-      </c>
-      <c r="B305" t="s">
-        <v>0</v>
-      </c>
-      <c r="C305" t="s">
-        <v>1</v>
-      </c>
-      <c r="D305" t="n">
-        <v>304</v>
-      </c>
-      <c r="E305" t="s">
-        <v>525</v>
-      </c>
-      <c r="F305" t="s">
-        <v>526</v>
-      </c>
-      <c r="G305" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
+++ b/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="522">
   <si>
     <t>中华人民共和国国务院办公厅</t>
   </si>
@@ -23,1567 +23,1558 @@
     <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%BE%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%BE%BD</t>
   </si>
   <si>
     <t>中华人民共和国国徽</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AB%A0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%B0%E7%AB%A0</t>
   </si>
   <si>
     <t>印章</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%BE%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9B%B4%E5%BE%84</t>
   </si>
   <si>
     <t>直径</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
   </si>
   <si>
     <t>中华人民共和国国务院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%A7%98%E4%B9%A6%E9%95%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%A7%98%E4%B9%A6%E9%95%BF</t>
   </si>
   <si>
     <t>国务院秘书长</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%A8%E6%99%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%A8%E6%99%B6</t>
   </si>
   <si>
     <t>杨晶</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E5%A7%94%E5%91%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E5%A7%94%E5%91%98</t>
   </si>
   <si>
     <t>国务委员</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%85%B3%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%85%B3%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中共中央国家机关工作委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E5%AD%A6%E4%B8%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%81%E5%AD%A6%E4%B8%9C</t>
   </si>
   <si>
     <t>丁学东</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E6%B0%B8%E6%B8%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%AA%E6%B0%B8%E6%B8%85</t>
   </si>
   <si>
     <t>汪永清</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%81%E5%90%91%E9%98%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%81%E5%90%91%E9%98%B3</t>
   </si>
   <si>
     <t>丁向阳</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%B0%8F%E6%B6%93</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%9F%E5%B0%8F%E6%B6%93</t>
   </si>
   <si>
     <t>江小涓</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%88%92%E6%99%93%E7%90%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%88%92%E6%99%93%E7%90%B4</t>
   </si>
   <si>
     <t>舒晓琴</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B3%BD%E6%9E%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%9F%E6%B3%BD%E6%9E%97</t>
   </si>
   <si>
     <t>江泽林</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E6%89%AC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AD%9F%E6%89%AC</t>
   </si>
   <si>
     <t>孟扬</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BD%AD%E6%A0%91%E6%9D%B0</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BD%AD%E6%A0%91%E6%9D%B0</t>
   </si>
   <si>
     <t>彭树杰</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%AE%9D%E8%8D%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E5%AE%9D%E8%8D%A3</t>
   </si>
   <si>
     <t>李宝荣</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%B8%B8%E5%8A%A1%E4%BC%9A%E8%AE%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%B8%B8%E5%8A%A1%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
     <t>国务院常务会议</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8A%9E%E5%85%AC%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
     <t>办公厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E7%A7%98%E4%B9%A6%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E7%A7%98%E4%B9%A6%E5%B1%80</t>
   </si>
   <si>
     <t>国务院办公厅秘书局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E9%83%A8%E5%A7%94%E7%AE%A1%E7%90%86%E7%9A%84%E5%9B%BD%E5%AE%B6%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E9%83%A8%E5%A7%94%E7%AE%A1%E7%90%86%E7%9A%84%E5%9B%BD%E5%AE%B6%E5%B1%80</t>
   </si>
   <si>
     <t>国务院部委管理的国家局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BF%A1%E8%AE%BF%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E4%BF%A1%E8%AE%BF%E5%B1%80</t>
   </si>
   <si>
     <t>国家信访局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8C%97%E4%BA%AC%E5%B8%82</t>
   </si>
   <si>
     <t>北京市</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%9F%8E%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A5%BF%E5%9F%8E%E5%8C%BA</t>
   </si>
   <si>
     <t>西城区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BA%9C%E5%8F%B3%E8%A1%97</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BA%9C%E5%8F%B3%E8%A1%97</t>
   </si>
   <si>
     <t>府右街</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%97%E6%B5%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%97%E6%B5%B7</t>
   </si>
   <si>
     <t>中南海</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%A2%83%E5%86%85%E5%9C%B0%E5%8C%BA%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%A2%83%E5%86%85%E5%9C%B0%E5%8C%BA%E9%82%AE%E6%94%BF%E7%BC%96%E7%A0%81%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>中华人民共和国境内地区邮政编码列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%88%E5%9D%9B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%88%E5%9D%9B</t>
   </si>
   <si>
     <t>月坛</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E5%B0%81</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BF%A1%E5%B0%81</t>
   </si>
   <si>
     <t>信封</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9C%8B%E9%9A%9B%E5%86%A0%E7%A2%BC</t>
   </si>
   <si>
     <t>国际冠码</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E9%99%85%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>国际电话区号列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%94%B5%E8%AF%9D%E5%8C%BA%E5%8F%B7</t>
   </si>
   <si>
     <t>中华人民共和国电话区号</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%86%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%89%E5%86%9C</t>
   </si>
   <si>
     <t>三农</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C</t>
   </si>
   <si>
     <t>社会保障</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%8A%9E%E5%85%AC%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
     <t>中共中央办公厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%AE%A3%E6%AD%A6%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%AE%A3%E6%AD%A6%E5%8C%BA</t>
   </si>
   <si>
     <t>宣武区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E5%AE%9A%E9%97%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B0%B8%E5%AE%9A%E9%97%A8</t>
   </si>
   <si>
     <t>永定门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A%E5%B8%B8%E5%8A%A1%E5%A7%94%E5%91%98%E4%BC%9A%E5%8A%9E%E5%85%AC%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A8%E5%9B%BD%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A%E5%B8%B8%E5%8A%A1%E5%A7%94%E5%91%98%E4%BC%9A%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
     <t>全国人民代表大会常务委员会办公厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%94%BF%E6%B2%BB%E5%8D%8F%E5%95%86%E4%BC%9A%E8%AE%AE%E5%85%A8%E5%9B%BD%E5%A7%94%E5%91%98%E4%BC%9A%E5%8A%9E%E5%85%AC%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%94%BF%E6%B2%BB%E5%8D%8F%E5%95%86%E4%BC%9A%E8%AE%AE%E5%85%A8%E5%9B%BD%E5%A7%94%E5%91%98%E4%BC%9A%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
     <t>中国人民政治协商会议全国委员会办公厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E5%8A%9E%E5%85%AC%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
     <t>中央军委办公厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8A%A1%E9%99%A2%E7%A7%98%E4%B9%A6%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%94%BF%E5%8A%A1%E9%99%A2%E7%A7%98%E4%B9%A6%E5%8E%85</t>
   </si>
   <si>
     <t>政务院秘书厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%B2%BB%E5%8C%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%87%AA%E6%B2%BB%E5%8C%BA</t>
   </si>
   <si>
     <t>自治区</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E8%BE%96%E5%B8%82</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9B%B4%E8%BE%96%E5%B8%82</t>
   </si>
   <si>
     <t>直辖市</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E7%A7%98%E4%B9%A6%E4%B8%80%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E7%A7%98%E4%B9%A6%E4%B8%80%E5%B1%80</t>
   </si>
   <si>
     <t>国务院办公厅秘书一局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E7%A7%98%E4%B9%A6%E4%BA%8C%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E7%A7%98%E4%B9%A6%E4%BA%8C%E5%B1%80</t>
   </si>
   <si>
     <t>国务院办公厅秘书二局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E7%A7%98%E4%B9%A6%E4%B8%89%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E7%A7%98%E4%B9%A6%E4%B8%89%E5%B1%80</t>
   </si>
   <si>
     <t>国务院办公厅秘书三局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E4%BA%BA%E4%BA%8B%E5%8F%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E4%BA%BA%E4%BA%8B%E5%8F%B8</t>
   </si>
   <si>
     <t>国务院办公厅人事司</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E8%A1%8C%E6%94%BF%E5%8F%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85%E8%A1%8C%E6%94%BF%E5%8F%B8</t>
   </si>
   <si>
     <t>国务院办公厅行政司</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%A7%98%E4%B9%A6%E9%95%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%A7%98%E4%B9%A6%E9%95%BF</t>
   </si>
   <si>
     <t>中华人民共和国国务院秘书长</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%89%AF%E7%A7%98%E4%B9%A6%E9%95%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%89%AF%E7%A7%98%E4%B9%A6%E9%95%BF</t>
   </si>
   <si>
     <t>中华人民共和国国务院副秘书长</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E5%85%8B%E5%BC%BA</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E5%85%8B%E5%BC%BA</t>
   </si>
   <si>
     <t>李克强</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E6%94%BF%E6%B3%95%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E6%94%BF%E6%B3%95%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中共中央政法委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%85%AC%E5%AE%89%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%85%AC%E5%AE%89%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国公安部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%AD%E5%A3%B0%E7%90%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%83%AD%E5%A3%B0%E7%90%A8</t>
   </si>
   <si>
     <t>郭声琨</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%82%96%E6%8D%B7</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%82%96%E6%8D%B7</t>
   </si>
   <si>
     <t>肖捷</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%88%98%E5%BB%B6%E4%B8%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%88%98%E5%BB%B6%E4%B8%9C</t>
   </si>
   <si>
     <t>刘延东</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%BC%A0%E9%AB%98%E4%B8%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%BC%A0%E9%AB%98%E4%B8%BD</t>
   </si>
   <si>
     <t>张高丽</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B1%AA%E6%B4%8B_(%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B1%AA%E6%B4%8B_(%E6%94%BF%E6%B2%BB%E4%BA%BA%E7%89%A9)</t>
   </si>
   <si>
     <t>汪洋 (政治人物)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E7%BB%B4%E5%85%89</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%BE%9B%E7%BB%B4%E5%85%89</t>
   </si>
   <si>
     <t>辛维光</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%8E%E7%BD%91</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E5%8D%8E%E7%BD%91</t>
   </si>
   <si>
     <t>新华网</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%97%A8%E6%88%B7%E7%BD%91%E7%AB%99</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%97%A8%E6%88%B7%E7%BD%91%E7%AB%99</t>
   </si>
   <si>
     <t>中华人民共和国中央人民政府门户网站</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%9C%BA%E6%9E%84%E7%BC%96%E5%88%B6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%9C%BA%E6%9E%84%E7%BC%96%E5%88%B6</t>
   </si>
   <si>
     <t>中华人民共和国国务院机构编制</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%80%BB%E7%90%86%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%80%BB%E7%90%86%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>中华人民共和国国务院总理办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%B8%BB%E5%B8%AD%E5%8A%9E%E5%85%AC%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%B8%BB%E5%B8%AD%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
     <t>中华人民共和国主席办公厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A7%E9%96%A3</t>
   </si>
   <si>
     <t>内阁</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E5%AE%AB%E5%8A%9E%E5%85%AC%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%99%BD%E5%AE%AB%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
     <t>白宫办公厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E9%96%A3%E5%AE%98%E6%88%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A7%E9%96%A3%E5%AE%98%E6%88%BF</t>
   </si>
   <si>
     <t>内阁官房</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD%E6%94%BF%E5%BA%9C%E5%8A%9E%E5%85%AC%E5%8E%85</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%92%99%E5%8F%A4%E5%9B%BD%E6%94%BF%E5%BA%9C%E5%8A%9E%E5%85%AC%E5%8E%85</t>
   </si>
   <si>
     <t>蒙古国政府办公厅</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/Template_talk:%E5%9B%BD%E5%8A%A1%E9%99%A2</t>
   </si>
   <si>
     <t>Template talk-国务院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
     <t>中华人民共和国</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E5%8D%81%E4%BA%8C%E5%B1%8A%E5%85%A8%E5%9B%BD%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%AC%AC%E5%8D%81%E4%BA%8C%E5%B1%8A%E5%85%A8%E5%9B%BD%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E4%BC%9A</t>
   </si>
   <si>
     <t>第十二届全国人民代表大会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%BB%84%E6%88%90%E4%BA%BA%E5%91%98</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%BB%84%E6%88%90%E4%BA%BA%E5%91%98</t>
   </si>
   <si>
     <t>中华人民共和国国务院组成人员</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%85%A8%E4%BD%93%E4%BC%9A%E8%AE%AE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%85%A8%E4%BD%93%E4%BC%9A%E8%AE%AE</t>
   </si>
   <si>
     <t>国务院全体会议</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%80%BB%E7%90%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%80%BB%E7%90%86</t>
   </si>
   <si>
     <t>中华人民共和国国务院总理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%BB%A3%E7%90%86%E6%80%BB%E7%90%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%BB%A3%E7%90%86%E6%80%BB%E7%90%86</t>
   </si>
   <si>
     <t>中华人民共和国国务院代理总理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%BB%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%BB%A4</t>
   </si>
   <si>
     <t>中华人民共和国国务院令</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%BA%9C%E5%B7%A5%E4%BD%9C%E6%8A%A5%E5%91%8A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%94%BF%E5%BA%9C%E5%B7%A5%E4%BD%9C%E6%8A%A5%E5%91%8A</t>
   </si>
   <si>
     <t>政府工作报告</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%80%BB%E7%90%86%E8%AE%B0%E8%80%85%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%80%BB%E7%90%86%E8%AE%B0%E8%80%85%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院总理记者会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%89%AF%E6%80%BB%E7%90%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%89%AF%E6%80%BB%E7%90%86</t>
   </si>
   <si>
     <t>中华人民共和国国务院副总理</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2_(%E7%AC%AC%E5%8D%81%E4%BA%8C%E5%B1%8A)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2_(%E7%AC%AC%E5%8D%81%E4%BA%8C%E5%B1%8A)</t>
   </si>
   <si>
     <t>中华人民共和国国务院 (第十二届)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%83%A8</t>
   </si>
   <si>
     <t>部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E9%95%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E9%83%A8%E9%95%BF</t>
   </si>
   <si>
     <t>部长</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E9%93%B6%E8%A1%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E9%93%B6%E8%A1%8C</t>
   </si>
   <si>
     <t>中国人民银行</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%AE%A1%E8%AE%A1%E7%BD%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%AE%A1%E8%AE%A1%E7%BD%B2</t>
   </si>
   <si>
     <t>中华人民共和国审计署</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%BB%84%E6%88%90%E9%83%A8%E9%97%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%BB%84%E6%88%90%E9%83%A8%E9%97%A8</t>
   </si>
   <si>
     <t>国务院组成部门</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%A4%96%E4%BA%A4%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%A4%96%E4%BA%A4%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国外交部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E9%98%B2%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国国防部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%8F%91%E5%B1%95%E5%92%8C%E6%94%B9%E9%9D%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%8F%91%E5%B1%95%E5%92%8C%E6%94%B9%E9%9D%A9%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中华人民共和国国家发展和改革委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%95%99%E8%82%B2%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%95%99%E8%82%B2%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国教育部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%A7%91%E5%AD%A6%E6%8A%80%E6%9C%AF%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国科学技术部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%B7%A5%E4%B8%9A%E5%92%8C%E4%BF%A1%E6%81%AF%E5%8C%96%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%B7%A5%E4%B8%9A%E5%92%8C%E4%BF%A1%E6%81%AF%E5%8C%96%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国工业和信息化部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%B0%91%E6%97%8F%E4%BA%8B%E5%8A%A1%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%B0%91%E6%97%8F%E4%BA%8B%E5%8A%A1%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中华人民共和国国家民族事务委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AE%89%E7%8E%B0%E5%BD%B9%E9%83%A8%E9%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%AC%E5%AE%89%E7%8E%B0%E5%BD%B9%E9%83%A8%E9%98%9F</t>
   </si>
   <si>
     <t>公安现役部队</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国国家安全部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%9B%91%E5%AF%9F%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%9B%91%E5%AF%9F%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国监察部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B0%91%E6%94%BF%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B0%91%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国民政部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%8F%B8%E6%B3%95%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国司法部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E8%B4%A2%E6%94%BF%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国财政部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E5%92%8C%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%BA%BA%E5%8A%9B%E8%B5%84%E6%BA%90%E5%92%8C%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国人力资源和社会保障部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%9C%9F%E8%B5%84%E6%BA%90%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%9C%9F%E8%B5%84%E6%BA%90%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国国土资源部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E7%8E%AF%E5%A2%83%E4%BF%9D%E6%8A%A4%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国环境保护部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%BD%8F%E6%88%BF%E5%92%8C%E5%9F%8E%E4%B9%A1%E5%BB%BA%E8%AE%BE%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%BD%8F%E6%88%BF%E5%92%8C%E5%9F%8E%E4%B9%A1%E5%BB%BA%E8%AE%BE%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国住房和城乡建设部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%BA%A4%E9%80%9A%E8%BF%90%E8%BE%93%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E4%BA%A4%E9%80%9A%E8%BF%90%E8%BE%93%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国交通运输部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B0%B4%E5%88%A9%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B0%B4%E5%88%A9%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国水利部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%86%9C%E4%B8%9A%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国农业部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%95%86%E5%8A%A1%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国商务部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%96%87%E5%8C%96%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%96%87%E5%8C%96%E9%83%A8</t>
   </si>
   <si>
     <t>中华人民共和国文化部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%8D%AB%E7%94%9F%E5%92%8C%E8%AE%A1%E5%88%92%E7%94%9F%E8%82%B2%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%8D%AB%E7%94%9F%E5%92%8C%E8%AE%A1%E5%88%92%E7%94%9F%E8%82%B2%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中华人民共和国国家卫生和计划生育委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%9B%B4%E5%B1%9E%E7%89%B9%E8%AE%BE%E6%9C%BA%E6%9E%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%9B%B4%E5%B1%9E%E7%89%B9%E8%AE%BE%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
     <t>国务院直属特设机构</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%9B%BD%E6%9C%89%E8%B5%84%E4%BA%A7%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%9B%BD%E6%9C%89%E8%B5%84%E4%BA%A7%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院国有资产监督管理委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BC%81%E4%B8%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E4%BC%81%E4%B8%9A</t>
   </si>
   <si>
     <t>中央企业</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%9B%B4%E5%B1%9E%E6%9C%BA%E6%9E%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%9B%B4%E5%B1%9E%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
     <t>国务院直属机构</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B5%B7%E5%85%B3%E6%80%BB%E7%BD%B2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B5%B7%E5%85%B3%E6%80%BB%E7%BD%B2</t>
   </si>
   <si>
     <t>中华人民共和国海关总署</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A8%8E%E5%8A%A1%E6%80%BB%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E7%A8%8E%E5%8A%A1%E6%80%BB%E5%B1%80</t>
   </si>
   <si>
     <t>国家税务总局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%B7%A5%E5%95%86%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86%E6%80%BB%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%B7%A5%E5%95%86%E8%A1%8C%E6%94%BF%E7%AE%A1%E7%90%86%E6%80%BB%E5%B1%80</t>
   </si>
   <si>
     <t>中华人民共和国国家工商行政管理总局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%B4%A8%E9%87%8F%E7%9B%91%E7%9D%A3%E6%A3%80%E9%AA%8C%E6%A3%80%E7%96%AB%E6%80%BB%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E8%B4%A8%E9%87%8F%E7%9B%91%E7%9D%A3%E6%A3%80%E9%AA%8C%E6%A3%80%E7%96%AB%E6%80%BB%E5%B1%80</t>
   </si>
   <si>
     <t>中华人民共和国国家质量监督检验检疫总局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86%E5%8C%96%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%A0%87%E5%87%86%E5%8C%96%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中国国家标准化管理委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%96%B0%E9%97%BB%E5%87%BA%E7%89%88%E5%B9%BF%E7%94%B5%E6%80%BB%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%96%B0%E9%97%BB%E5%87%BA%E7%89%88%E5%B9%BF%E7%94%B5%E6%80%BB%E5%B1%80</t>
   </si>
   <si>
     <t>国家新闻出版广电总局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%BD%93%E8%82%B2%E6%80%BB%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E4%BD%93%E8%82%B2%E6%80%BB%E5%B1%80</t>
   </si>
   <si>
     <t>国家体育总局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E5%85%A8%E5%9B%BD%E4%BD%93%E8%82%B2%E6%80%BB%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E5%85%A8%E5%9B%BD%E4%BD%93%E8%82%B2%E6%80%BB%E4%BC%9A</t>
   </si>
   <si>
     <t>中华全国体育总会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E7%94%9F%E4%BA%A7%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E6%80%BB%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%AE%89%E5%85%A8%E7%94%9F%E4%BA%A7%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E6%80%BB%E5%B1%80</t>
   </si>
   <si>
     <t>国家安全生产监督管理总局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%A3%9F%E5%93%81%E8%8D%AF%E5%93%81%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E6%80%BB%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E9%A3%9F%E5%93%81%E8%8D%AF%E5%93%81%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E6%80%BB%E5%B1%80</t>
   </si>
   <si>
     <t>国家食品药品监督管理总局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%82%E4%BA%8B%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%82%E4%BA%8B%E5%AE%A4</t>
   </si>
   <si>
     <t>国务院参事室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%BB%9F%E8%AE%A1%E5%B1%80</t>
   </si>
   <si>
     <t>中华人民共和国国家统计局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%9E%97%E4%B8%9A%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%9E%97%E4%B8%9A%E5%B1%80</t>
   </si>
   <si>
     <t>国家林业局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E7%9F%A5%E8%AF%86%E4%BA%A7%E6%9D%83%E5%B1%80</t>
   </si>
   <si>
     <t>中华人民共和国国家知识产权局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%97%85%E6%B8%B8%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%AE%B6%E6%97%85%E6%B8%B8%E5%B1%80</t>
   </si>
   <si>
     <t>中华人民共和国国家旅游局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%AE%97%E6%95%99%E4%BA%8B%E5%8A%A1%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%AE%97%E6%95%99%E4%BA%8B%E5%8A%A1%E5%B1%80</t>
   </si>
   <si>
     <t>国家宗教事务局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%85%B3%E4%BA%8B%E5%8A%A1%E7%AE%A1%E7%90%86%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%9C%BA%E5%85%B3%E4%BA%8B%E5%8A%A1%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
     <t>国家机关事务管理局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%A2%84%E9%98%B2%E8%85%90%E8%B4%A5%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E9%A2%84%E9%98%B2%E8%85%90%E8%B4%A5%E5%B1%80</t>
   </si>
   <si>
     <t>国家预防腐败局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E4%BA%8B%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
     <t>国务院办事机构</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%BE%A8%E5%8A%A1%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%BE%A8%E5%8A%A1%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>国务院侨务办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%B8%AF%E6%BE%B3%E4%BA%8B%E5%8A%A1%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%B8%AF%E6%BE%B3%E4%BA%8B%E5%8A%A1%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>国务院港澳事务办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%B3%95%E5%88%B6%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%B3%95%E5%88%B6%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>国务院法制办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%A0%94%E7%A9%B6%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%A0%94%E7%A9%B6%E5%AE%A4</t>
   </si>
   <si>
     <t>国务院研究室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E7%9B%B4%E5%B1%9E%E6%9C%BA%E6%9E%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E7%9B%B4%E5%B1%9E%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
     <t>中共中央直属机构</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%B0%E6%B9%BE%E4%BA%8B%E5%8A%A1%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%B0%E6%B9%BE%E4%BA%8B%E5%8A%A1%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>国务院台湾事务办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%96%B0%E9%97%BB%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%96%B0%E9%97%BB%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>国务院新闻办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/610%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/610%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>610办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%9B%B4%E5%B1%9E%E4%BA%8B%E4%B8%9A%E5%8D%95%E4%BD%8D</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%9B%B4%E5%B1%9E%E4%BA%8B%E4%B8%9A%E5%8D%95%E4%BD%8D</t>
   </si>
   <si>
     <t>国务院直属事业单位</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8D%8E%E7%A4%BE</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%96%B0%E5%8D%8E%E7%A4%BE</t>
   </si>
   <si>
     <t>新华社</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A7%91%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E7%A7%91%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>中国科学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E7%A4%BE%E4%BC%9A%E7%A7%91%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>中国社会科学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%B7%A5%E7%A8%8B%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E5%B7%A5%E7%A8%8B%E9%99%A2</t>
   </si>
   <si>
     <t>中国工程院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%91%E5%B1%95%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%91%E5%B1%95%E7%A0%94%E7%A9%B6%E4%B8%AD%E5%BF%83</t>
   </si>
   <si>
     <t>国务院发展研究中心</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%A1%8C%E6%94%BF%E5%AD%A6%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E8%A1%8C%E6%94%BF%E5%AD%A6%E9%99%A2</t>
   </si>
   <si>
     <t>国家行政学院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%93%B6%E8%A1%8C%E4%B8%9A%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E9%93%B6%E8%A1%8C%E4%B8%9A%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中国银行业监督管理委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E8%AF%81%E5%88%B8%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E8%AF%81%E5%88%B8%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中国证券监督管理委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BF%9D%E9%99%A9%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E4%BF%9D%E9%99%A9%E7%9B%91%E7%9D%A3%E7%AE%A1%E7%90%86%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中国保险监督管理委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C%E5%9F%BA%E9%87%91%E7%90%86%E4%BA%8B%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A8%E5%9B%BD%E7%A4%BE%E4%BC%9A%E4%BF%9D%E9%9A%9C%E5%9F%BA%E9%87%91%E7%90%86%E4%BA%8B%E4%BC%9A</t>
   </si>
   <si>
     <t>全国社会保障基金理事会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6%E5%9F%BA%E9%87%91%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E8%87%AA%E7%84%B6%E7%A7%91%E5%AD%A6%E5%9F%BA%E9%87%91%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国家自然科学基金委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E5%9C%B0%E9%9C%87%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E5%9C%B0%E9%9C%87%E5%B1%80</t>
   </si>
   <si>
     <t>中国地震局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B0%94%E8%B1%A1%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E6%B0%94%E8%B1%A1%E5%B1%80</t>
   </si>
   <si>
     <t>中国气象局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%B2%AE%E9%A3%9F%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E7%B2%AE%E9%A3%9F%E5%B1%80</t>
   </si>
   <si>
     <t>国家粮食局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%83%BD%E6%BA%90%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E8%83%BD%E6%BA%90%E5%B1%80</t>
   </si>
   <si>
     <t>国家能源局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%9B%BD%E9%98%B2%E7%A7%91%E6%8A%80%E5%B7%A5%E4%B8%9A%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%9B%BD%E9%98%B2%E7%A7%91%E6%8A%80%E5%B7%A5%E4%B8%9A%E5%B1%80</t>
   </si>
   <si>
     <t>国家国防科技工业局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%83%9F%E8%8D%89%E4%B8%93%E5%8D%96%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E7%83%9F%E8%8D%89%E4%B8%93%E5%8D%96%E5%B1%80</t>
   </si>
   <si>
     <t>国家烟草专卖局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E7%83%9F%E8%8D%89%E6%80%BB%E5%85%AC%E5%8F%B8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E7%83%9F%E8%8D%89%E6%80%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
     <t>中国烟草总公司</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%A4%96%E5%9B%BD%E4%B8%93%E5%AE%B6%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%A4%96%E5%9B%BD%E4%B8%93%E5%AE%B6%E5%B1%80</t>
   </si>
   <si>
     <t>国家外国专家局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%8A%A1%E5%91%98%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%8A%A1%E5%91%98%E5%B1%80</t>
   </si>
   <si>
     <t>国家公务员局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%B5%B7%E6%B4%8B%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%B5%B7%E6%B4%8B%E5%B1%80</t>
   </si>
   <si>
     <t>国家海洋局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B5%B7%E8%AD%A6</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E6%B5%B7%E8%AD%A6</t>
   </si>
   <si>
     <t>中国海警</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%B5%8B%E7%BB%98%E5%9C%B0%E7%90%86%E4%BF%A1%E6%81%AF%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%B5%8B%E7%BB%98%E5%9C%B0%E7%90%86%E4%BF%A1%E6%81%AF%E5%B1%80</t>
   </si>
   <si>
     <t>国家测绘地理信息局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%93%81%E8%B7%AF%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E9%93%81%E8%B7%AF%E5%B1%80</t>
   </si>
   <si>
     <t>国家铁路局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E5%B1%80</t>
   </si>
   <si>
     <t>中国民用航空局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%82%AE%E6%94%BF%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E9%82%AE%E6%94%BF%E5%B1%80</t>
   </si>
   <si>
     <t>国家邮政局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E9%82%AE%E6%94%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E9%82%AE%E6%94%BF</t>
   </si>
   <si>
     <t>中国邮政</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%96%87%E7%89%A9%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%96%87%E7%89%A9%E5%B1%80</t>
   </si>
   <si>
     <t>国家文物局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E4%B8%AD%E5%8C%BB%E8%8D%AF%E7%AE%A1%E7%90%86%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E4%B8%AD%E5%8C%BB%E8%8D%AF%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
     <t>国家中医药管理局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%A4%96%E6%B1%87%E7%AE%A1%E7%90%86%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%A4%96%E6%B1%87%E7%AE%A1%E7%90%86%E5%B1%80</t>
   </si>
   <si>
     <t>国家外汇管理局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%85%A4%E7%9F%BF%E5%AE%89%E5%85%A8%E7%9B%91%E5%AF%9F%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E7%85%A4%E7%9F%BF%E5%AE%89%E5%85%A8%E7%9B%91%E5%AF%9F%E5%B1%80</t>
   </si>
   <si>
     <t>国家煤矿安全监察局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%A1%A3%E6%A1%88%E9%A6%86</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E6%A1%A3%E6%A1%88%E9%A6%86</t>
   </si>
   <si>
     <t>中央档案馆</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BF%9D%E5%AF%86%E5%A7%94%E5%91%98%E4%BC%9A%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E4%BF%9D%E5%AF%86%E5%A7%94%E5%91%98%E4%BC%9A%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>中央保密委员会办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%AF%86%E7%A0%81%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E5%AF%86%E7%A0%81%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>中央密码工作领导小组办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E4%B8%AA%E6%9C%BA%E6%9E%84%E5%A4%9A%E5%9D%97%E7%89%8C%E5%AD%90</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%80%E4%B8%AA%E6%9C%BA%E6%9E%84%E5%A4%9A%E5%9D%97%E7%89%8C%E5%AD%90</t>
   </si>
   <si>
     <t>一个机构多块牌子</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E8%88%AA%E5%A4%A9%E5%B1%80</t>
   </si>
   <si>
     <t>国家航天局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%8E%9F%E5%AD%90%E8%83%BD%E6%9C%BA%E6%9E%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%8E%9F%E5%AD%90%E8%83%BD%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
     <t>国家原子能机构</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%AF%AD%E8%A8%80%E6%96%87%E5%AD%97%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E8%AF%AD%E8%A8%80%E6%96%87%E5%AD%97%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国家语言文字工作委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A0%B8%E5%AE%89%E5%85%A8%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%A0%B8%E5%AE%89%E5%85%A8%E5%B1%80</t>
   </si>
   <si>
     <t>国家核安全局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E8%AE%AE%E4%BA%8B%E5%8D%8F%E8%B0%83%E6%9C%BA%E6%9E%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E8%AE%AE%E4%BA%8B%E5%8D%8F%E8%B0%83%E6%9C%BA%E6%9E%84</t>
   </si>
   <si>
     <t>国务院议事协调机构</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%9B%BD%E9%98%B2%E5%8A%A8%E5%91%98%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%9B%BD%E9%98%B2%E5%8A%A8%E5%91%98%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国家国防动员委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E5%90%8E%E5%8B%A4%E4%BF%9D%E9%9A%9C%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E5%90%8E%E5%8B%A4%E4%BF%9D%E9%9A%9C%E9%83%A8</t>
   </si>
   <si>
     <t>中央军委后勤保障部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E5%9B%BD%E9%98%B2%E5%8A%A8%E5%91%98%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E5%9B%BD%E9%98%B2%E5%8A%A8%E5%91%98%E9%83%A8</t>
   </si>
   <si>
     <t>中央军委国防动员部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%BE%B9%E6%B5%B7%E9%98%B2%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E8%BE%B9%E6%B5%B7%E9%98%B2%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国家边海防委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E8%81%94%E5%90%88%E5%8F%82%E8%B0%8B%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E8%81%94%E5%90%88%E5%8F%82%E8%B0%8B%E9%83%A8</t>
   </si>
   <si>
     <t>中央军委联合参谋部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E7%A9%BA%E4%B8%AD%E4%BA%A4%E9%80%9A%E7%AE%A1%E5%88%B6%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E7%A9%BA%E4%B8%AD%E4%BA%A4%E9%80%9A%E7%AE%A1%E5%88%B6%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院中央军委空中交通管制委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E7%88%B1%E5%9B%BD%E5%8D%AB%E7%94%9F%E8%BF%90%E5%8A%A8%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A8%E5%9B%BD%E7%88%B1%E5%9B%BD%E5%8D%AB%E7%94%9F%E8%BF%90%E5%8A%A8%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>全国爱国卫生运动委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E7%BB%BF%E5%8C%96%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A8%E5%9B%BD%E7%BB%BF%E5%8C%96%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>全国绿化委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%AD%A6%E4%BD%8D%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%AD%A6%E4%BD%8D%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院学位委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E9%98%B2%E6%B1%9B%E6%8A%97%E6%97%B1%E6%80%BB%E6%8C%87%E6%8C%A5%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E9%98%B2%E6%B1%9B%E6%8A%97%E6%97%B1%E6%80%BB%E6%8C%87%E6%8C%A5%E9%83%A8</t>
   </si>
   <si>
     <t>国家防汛抗旱总指挥部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%A6%87%E5%A5%B3%E5%84%BF%E7%AB%A5%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%A6%87%E5%A5%B3%E5%84%BF%E7%AB%A5%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院妇女儿童工作委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E5%85%A8%E5%9B%BD%E5%A6%87%E5%A5%B3%E8%81%94%E5%90%88%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E5%85%A8%E5%9B%BD%E5%A6%87%E5%A5%B3%E8%81%94%E5%90%88%E4%BC%9A</t>
   </si>
   <si>
     <t>中华全国妇女联合会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E6%8B%A5%E5%86%9B%E4%BC%98%E5%B1%9E%E6%8B%A5%E6%94%BF%E7%88%B1%E6%B0%91%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A8%E5%9B%BD%E6%8B%A5%E5%86%9B%E4%BC%98%E5%B1%9E%E6%8B%A5%E6%94%BF%E7%88%B1%E6%B0%91%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>全国拥军优属拥政爱民工作领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E6%94%BF%E6%B2%BB%E5%B7%A5%E4%BD%9C%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E5%86%9B%E5%A7%94%E6%94%BF%E6%B2%BB%E5%B7%A5%E4%BD%9C%E9%83%A8</t>
   </si>
   <si>
     <t>中央军委政治工作部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%AE%8B%E7%96%BE%E4%BA%BA%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%AE%8B%E7%96%BE%E4%BA%BA%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院残疾人工作委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E6%AE%8B%E7%96%BE%E4%BA%BA%E8%81%94%E5%90%88%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E6%AE%8B%E7%96%BE%E4%BA%BA%E8%81%94%E5%90%88%E4%BC%9A</t>
   </si>
   <si>
     <t>中国残疾人联合会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%89%B6%E8%B4%AB%E5%BC%80%E5%8F%91%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%89%B6%E8%B4%AB%E5%BC%80%E5%8F%91%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院扶贫开发领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%85%B3%E7%A8%8E%E7%A8%8E%E5%88%99%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%85%B3%E7%A8%8E%E7%A8%8E%E5%88%99%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院关税税则委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%87%8F%E7%81%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%87%8F%E7%81%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国家减灾委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A7%91%E6%8A%80%E6%95%99%E8%82%B2%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E7%A7%91%E6%8A%80%E6%95%99%E8%82%B2%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国家科技教育领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%86%9B%E9%98%9F%E8%BD%AC%E4%B8%9A%E5%B9%B2%E9%83%A8%E5%AE%89%E7%BD%AE%E5%B7%A5%E4%BD%9C%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%86%9B%E9%98%9F%E8%BD%AC%E4%B8%9A%E5%B9%B2%E9%83%A8%E5%AE%89%E7%BD%AE%E5%B7%A5%E4%BD%9C%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院军队转业干部安置工作小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E7%A6%81%E6%AF%92%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E7%A6%81%E6%AF%92%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国家禁毒委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E8%80%81%E9%BE%84%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A8%E5%9B%BD%E8%80%81%E9%BE%84%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>全国老龄工作委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E8%A5%BF%E9%83%A8%E5%9C%B0%E5%8C%BA%E5%BC%80%E5%8F%91%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E8%A5%BF%E9%83%A8%E5%9C%B0%E5%8C%BA%E5%BC%80%E5%8F%91%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院西部地区开发领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%8C%AF%E5%85%B4%E4%B8%9C%E5%8C%97%E5%9C%B0%E5%8C%BA%E7%AD%89%E8%80%81%E5%B7%A5%E4%B8%9A%E5%9F%BA%E5%9C%B0%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%8C%AF%E5%85%B4%E4%B8%9C%E5%8C%97%E5%9C%B0%E5%8C%BA%E7%AD%89%E8%80%81%E5%B7%A5%E4%B8%9A%E5%9F%BA%E5%9C%B0%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院振兴东北地区等老工业基地领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E7%BD%91%E7%BB%9C%E5%AE%89%E5%85%A8%E5%92%8C%E4%BF%A1%E6%81%AF%E5%8C%96%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E7%BD%91%E7%BB%9C%E5%AE%89%E5%85%A8%E5%92%8C%E4%BF%A1%E6%81%AF%E5%8C%96%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>中央网络安全和信息化领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%BA%94%E5%AF%B9%E6%B0%94%E5%80%99%E5%8F%98%E5%8C%96%E5%8F%8A%E8%8A%82%E8%83%BD%E5%87%8F%E6%8E%92%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%BA%94%E5%AF%B9%E6%B0%94%E5%80%99%E5%8F%98%E5%8C%96%E5%8F%8A%E8%8A%82%E8%83%BD%E5%87%8F%E6%8E%92%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国家应对气候变化及节能减排工作领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E8%83%BD%E6%BA%90%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E8%83%BD%E6%BA%90%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国家能源委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%AE%89%E5%85%A8%E7%94%9F%E4%BA%A7%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%AE%89%E5%85%A8%E7%94%9F%E4%BA%A7%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院安全生产委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E9%98%B2%E6%B2%BB%E8%89%BE%E6%BB%8B%E7%97%85%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E9%98%B2%E6%B2%BB%E8%89%BE%E6%BB%8B%E7%97%85%E5%B7%A5%E4%BD%9C%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院防治艾滋病工作委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%8D%E5%9E%84%E6%96%AD%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8F%8D%E5%9E%84%E6%96%AD%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院反垄断委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E9%98%B2%E7%81%AB%E6%8C%87%E6%8C%A5%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%A3%AE%E6%9E%97%E9%98%B2%E7%81%AB%E6%8C%87%E6%8C%A5%E9%83%A8</t>
   </si>
   <si>
     <t>国家森林防火指挥部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%B8%89%E5%B3%A1%E5%B7%A5%E7%A8%8B%E5%BB%BA%E8%AE%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%B8%89%E5%B3%A1%E5%B7%A5%E7%A8%8B%E5%BB%BA%E8%AE%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院三峡工程建设委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8D%97%E6%B0%B4%E5%8C%97%E8%B0%83%E5%B7%A5%E7%A8%8B%E5%BB%BA%E8%AE%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8D%97%E6%B0%B4%E5%8C%97%E8%B0%83%E5%B7%A5%E7%A8%8B%E5%BB%BA%E8%AE%BE%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院南水北调工程建设委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%BA%A0%E6%AD%A3%E8%A1%8C%E4%B8%9A%E4%B8%8D%E6%AD%A3%E4%B9%8B%E9%A3%8E%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E7%BA%A0%E6%AD%A3%E8%A1%8C%E4%B8%9A%E4%B8%8D%E6%AD%A3%E4%B9%8B%E9%A3%8E%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>国务院纠正行业不正之风办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%B7%B1%E5%8C%96%E5%8C%BB%E8%8D%AF%E5%8D%AB%E7%94%9F%E4%BD%93%E5%88%B6%E6%94%B9%E9%9D%A9%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%B7%B1%E5%8C%96%E5%8C%BB%E8%8D%AF%E5%8D%AB%E7%94%9F%E4%BD%93%E5%88%B6%E6%94%B9%E9%9D%A9%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院深化医药卫生体制改革领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%BF%83%E8%BF%9B%E4%B8%AD%E5%B0%8F%E4%BC%81%E4%B8%9A%E5%8F%91%E5%B1%95%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E4%BF%83%E8%BF%9B%E4%B8%AD%E5%B0%8F%E4%BC%81%E4%B8%9A%E5%8F%91%E5%B1%95%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院促进中小企业发展工作领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E9%A3%9F%E5%93%81%E5%AE%89%E5%85%A8%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E9%A3%9F%E5%93%81%E5%AE%89%E5%85%A8%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院食品安全委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%86%9C%E6%B0%91%E5%B7%A5%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%86%9C%E6%B0%91%E5%B7%A5%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院农民工工作领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9B%BD%E9%80%80%E5%BD%B9%E5%A3%AB%E5%85%B5%E5%AE%89%E7%BD%AE%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%A8%E5%9B%BD%E9%80%80%E5%BD%B9%E5%A3%AB%E5%85%B5%E5%AE%89%E7%BD%AE%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>全国退役士兵安置工作领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%BA%AC%E6%B4%A5%E5%86%80%E5%8D%8F%E5%90%8C%E5%8F%91%E5%B1%95%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%BA%AC%E6%B4%A5%E5%86%80%E5%8D%8F%E5%90%8C%E5%8F%91%E5%B1%95%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>京津冀协同发展领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E8%BF%9B%E2%80%9C%E4%B8%80%E5%B8%A6%E4%B8%80%E8%B7%AF%E2%80%9D%E5%BB%BA%E8%AE%BE%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%8E%A8%E8%BF%9B%E2%80%9C%E4%B8%80%E5%B8%A6%E4%B8%80%E8%B7%AF%E2%80%9D%E5%BB%BA%E8%AE%BE%E5%B7%A5%E4%BD%9C%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>推进“一带一路”建设工作领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%8E%A8%E8%BF%9B%E8%81%8C%E8%83%BD%E8%BD%AC%E5%8F%98%E5%8D%8F%E8%B0%83%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%8E%A8%E8%BF%9B%E8%81%8C%E8%83%BD%E8%BD%AC%E5%8F%98%E5%8D%8F%E8%B0%83%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院推进职能转变协调小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E5%88%B6%E9%80%A0%E5%BC%BA%E5%9B%BD%E5%BB%BA%E8%AE%BE%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E5%88%B6%E9%80%A0%E5%BC%BA%E5%9B%BD%E5%BB%BA%E8%AE%BE%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国家制造强国建设领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%96%B0%E6%9D%90%E6%96%99%E4%BA%A7%E4%B8%9A%E5%8F%91%E5%B1%95%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%96%B0%E6%9D%90%E6%96%99%E4%BA%A7%E4%B8%9A%E5%8F%91%E5%B1%95%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国家新材料产业发展领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%95%99%E6%9D%90%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%95%99%E6%9D%90%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国家教材委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E9%87%91%E8%9E%8D%E7%A8%B3%E5%AE%9A%E5%8F%91%E5%B1%95%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E9%87%91%E8%9E%8D%E7%A8%B3%E5%AE%9A%E5%8F%91%E5%B1%95%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>国务院金融稳定发展委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%8E%A5%E5%BE%85%E5%AE%89%E7%BD%AE%E5%8D%B0%E6%94%AF%E9%9A%BE%E6%B0%91%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%8E%A5%E5%BE%85%E5%AE%89%E7%BD%AE%E5%8D%B0%E6%94%AF%E9%9A%BE%E6%B0%91%E9%A2%86%E5%AF%BC%E5%B0%8F%E7%BB%84</t>
   </si>
   <si>
     <t>国务院接待安置印支难民领导小组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%A7%90%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%81%AF%E7%B5%A1%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%A7%90%E9%A6%99%E6%B8%AF%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%81%AF%E7%B5%A1%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>中央人民政府驻香港特别行政区联络办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%A7%90%E6%BE%B3%E9%96%80%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%81%AF%E7%B5%A1%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E9%A7%90%E6%BE%B3%E9%96%80%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80%E8%81%AF%E7%B5%A1%E8%BE%A6%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>中央人民政府驻澳门特别行政区联络办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%9C%89%E9%87%8D%E7%82%B9%E5%A4%A7%E5%9E%8B%E4%BC%81%E4%B8%9A%E7%9B%91%E4%BA%8B%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E6%9C%89%E9%87%8D%E7%82%B9%E5%A4%A7%E5%9E%8B%E4%BC%81%E4%B8%9A%E7%9B%91%E4%BA%8B%E4%BC%9A</t>
   </si>
   <si>
     <t>国有重点大型企业监事会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%9C%BA%E6%9E%84%E7%BC%96%E5%88%B6%E5%A7%94%E5%91%98%E4%BC%9A</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E6%9C%BA%E6%9E%84%E7%BC%96%E5%88%B6%E5%A7%94%E5%91%98%E4%BC%9A</t>
   </si>
   <si>
     <t>中央机构编制委员会</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E6%9C%BA%E6%9E%84%E7%BC%96%E5%88%B6%E5%A7%94%E5%91%98%E4%BC%9A%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E6%9C%BA%E6%9E%84%E7%BC%96%E5%88%B6%E5%A7%94%E5%91%98%E4%BC%9A%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>中央机构编制委员会办公室</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%AD%A6%E8%A3%85%E8%AD%A6%E5%AF%9F%E9%83%A8%E9%98%9F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%9B%BD%E4%BA%BA%E6%B0%91%E6%AD%A6%E8%A3%85%E8%AD%A6%E5%AF%9F%E9%83%A8%E9%98%9F</t>
   </si>
   <si>
     <t>中国人民武装警察部队</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E8%B0%83%E6%9F%A5%E7%BB%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E8%B0%83%E6%9F%A5%E7%BB%84</t>
   </si>
   <si>
     <t>国务院调查组</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%9C%BA%E6%9E%84%E5%B9%B4%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%9C%BA%E6%9E%84%E5%B9%B4%E8%A1%A8</t>
   </si>
   <si>
     <t>中华人民共和国国务院机构年表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%9C%BA%E6%9E%84%E6%97%B6%E9%97%B4%E7%BA%BF</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%9C%BA%E6%9E%84%E6%97%B6%E9%97%B4%E7%BA%BF</t>
   </si>
   <si>
     <t>中华人民共和国国务院机构时间线</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%9C%BA%E6%9E%84%E6%94%B9%E9%9D%A9</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%9C%BA%E6%9E%84%E6%94%B9%E9%9D%A9</t>
   </si>
   <si>
     <t>国务院机构改革</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%B7%B2%E6%92%A4%E9%94%80%E6%9C%BA%E6%9E%84%E5%88%97%E8%A1%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%B7%B2%E6%92%A4%E9%94%80%E6%9C%BA%E6%9E%84%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
     <t>中华人民共和国国务院已撤销机构列表</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A7%84</t>
   </si>
   <si>
     <t>行政法规</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
     <t>中华人民共和国法律</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%AE%A3%E4%BC%A0%E9%83%A8</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%85%B1%E4%B8%AD%E5%A4%AE%E5%AE%A3%E4%BC%A0%E9%83%A8</t>
   </si>
   <si>
     <t>中共中央宣传部</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%BB%8F%E6%B5%8E%E6%97%A5%E6%8A%A5_(%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%BB%8F%E6%B5%8E%E6%97%A5%E6%8A%A5_(%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD)</t>
   </si>
   <si>
     <t>经济日报 (中华人民共和国)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9F%8E%E5%B8%82%E6%80%BB%E4%BD%93%E8%A7%84%E5%88%92</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9F%8E%E5%B8%82%E6%80%BB%E4%BD%93%E8%A7%84%E5%88%92</t>
   </si>
   <si>
     <t>中华人民共和国城市总体规划</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%94%BF%E5%BA%9C%E7%89%B9%E6%AE%8A%E6%B4%A5%E8%B4%B4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%8A%A1%E9%99%A2%E6%94%BF%E5%BA%9C%E7%89%B9%E6%AE%8A%E6%B4%A5%E8%B4%B4</t>
   </si>
   <si>
     <t>国务院政府特殊津贴</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%91%A8%E6%81%A9%E6%9D%A5</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%91%A8%E6%81%A9%E6%9D%A5</t>
   </si>
   <si>
     <t>周恩来</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E6%94%BF%E5%8A%A1%E9%99%A2</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%A4%AE%E4%BA%BA%E6%B0%91%E6%94%BF%E5%BA%9C%E6%94%BF%E5%8A%A1%E9%99%A2</t>
   </si>
   <si>
     <t>中央人民政府政务院</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%8D%8E%E5%9B%BD%E9%94%8B</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%8D%8E%E5%9B%BD%E9%94%8B</t>
   </si>
   <si>
     <t>华国锋</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E8%B5%B5%E7%B4%AB%E9%98%B3</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E8%B5%B5%E7%B4%AB%E9%98%B3</t>
   </si>
   <si>
     <t>赵紫阳</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9D%8E%E9%B9%8F</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9D%8E%E9%B9%8F</t>
   </si>
   <si>
     <t>李鹏</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%9C%B1%E9%95%95%E5%9F%BA%E6%94%BF%E5%BA%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%9C%B1%E9%95%95%E5%9F%BA%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
     <t>朱镕基政府</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E6%B8%A9%E5%AE%B6%E5%AE%9D%E6%94%BF%E5%BA%9C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E6%B8%A9%E5%AE%B6%E5%AE%9D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
     <t>温家宝政府</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2_(%E7%AC%AC%E5%8D%81%E5%B1%8A)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2_(%E7%AC%AC%E5%8D%81%E5%B1%8A)</t>
   </si>
   <si>
     <t>中华人民共和国国务院 (第十届)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2_(%E7%AC%AC%E5%8D%81%E4%B8%80%E5%B1%8A)</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2_(%E7%AC%AC%E5%8D%81%E4%B8%80%E5%B1%8A)</t>
   </si>
   <si>
     <t>中华人民共和国国务院 (第十一届)</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD%E5%9B%BD%E5%8A%A1%E9%99%A2%E5%8A%9E%E5%85%AC%E5%8E%85</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E9%83%A8%E7%BA%A7%E6%AD%A3%E8%81%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9C%81%E9%83%A8%E7%BA%A7%E6%AD%A3%E8%81%8C</t>
   </si>
   <si>
     <t>省部级正职</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%9C%81%E9%83%A8%E7%BA%A7%E5%89%AF%E8%81%8C</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E7%9C%81%E9%83%A8%E7%BA%A7%E5%89%AF%E8%81%8C</t>
   </si>
   <si>
     <t>省部级副职</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%AE%89%E9%83%A8%E8%AD%A6%E5%8D%AB%E5%B1%80</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%85%AC%E5%AE%89%E9%83%A8%E8%AD%A6%E5%8D%AB%E5%B1%80</t>
   </si>
   <si>
     <t>公安部警卫局</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E5%AE%B6%E6%8A%95%E8%AF%89%E5%8F%97%E7%90%86%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
+    <t>https://zh.wikipedia.org/zh-cn/%E5%9B%BD%E5%AE%B6%E6%8A%95%E8%AF%89%E5%8F%97%E7%90%86%E5%8A%9E%E5%85%AC%E5%AE%A4</t>
   </si>
   <si>
     <t>国家投诉受理办公室</t>
-  </si>
-  <si>
-    <t>浏览条目正文[c]</t>
-  </si>
-  <si>
-    <t>阅读</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/General_Office_of_the_State_Council</t>
@@ -1938,7 +1929,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G304"/>
+  <dimension ref="A1:G302"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2699,7 +2690,7 @@
         <v>63</v>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -8334,7 +8325,7 @@
         <v>497</v>
       </c>
       <c r="G278" t="n">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8472,7 +8463,7 @@
         <v>509</v>
       </c>
       <c r="G284" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285" spans="1:7">
@@ -8495,7 +8486,7 @@
         <v>511</v>
       </c>
       <c r="G285" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="286" spans="1:7">
@@ -8518,7 +8509,7 @@
         <v>161</v>
       </c>
       <c r="G286" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" spans="1:7">
@@ -8535,7 +8526,7 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="F287" t="s">
         <v>0</v>
@@ -8581,10 +8572,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
+        <v>512</v>
+      </c>
+      <c r="F289" t="s">
         <v>513</v>
-      </c>
-      <c r="F289" t="s">
-        <v>514</v>
       </c>
       <c r="G289" t="n">
         <v>3</v>
@@ -8627,10 +8618,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
+        <v>514</v>
+      </c>
+      <c r="F291" t="s">
         <v>515</v>
-      </c>
-      <c r="F291" t="s">
-        <v>516</v>
       </c>
       <c r="G291" t="n">
         <v>4</v>
@@ -8673,7 +8664,7 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>512</v>
+        <v>1</v>
       </c>
       <c r="F293" t="s">
         <v>0</v>
@@ -8811,10 +8802,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
+        <v>516</v>
+      </c>
+      <c r="F299" t="s">
         <v>517</v>
-      </c>
-      <c r="F299" t="s">
-        <v>518</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -8834,10 +8825,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
+        <v>518</v>
+      </c>
+      <c r="F300" t="s">
         <v>519</v>
-      </c>
-      <c r="F300" t="s">
-        <v>520</v>
       </c>
       <c r="G300" t="n">
         <v>2</v>
@@ -8880,58 +8871,12 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="F302" t="s">
         <v>521</v>
       </c>
       <c r="G302" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="303" spans="1:7">
-      <c r="A303" s="1" t="n">
-        <v>301</v>
-      </c>
-      <c r="B303" t="s">
-        <v>0</v>
-      </c>
-      <c r="C303" t="s">
-        <v>1</v>
-      </c>
-      <c r="D303" t="n">
-        <v>302</v>
-      </c>
-      <c r="E303" t="s">
-        <v>512</v>
-      </c>
-      <c r="F303" t="s">
-        <v>522</v>
-      </c>
-      <c r="G303" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="304" spans="1:7">
-      <c r="A304" s="1" t="n">
-        <v>302</v>
-      </c>
-      <c r="B304" t="s">
-        <v>0</v>
-      </c>
-      <c r="C304" t="s">
-        <v>1</v>
-      </c>
-      <c r="D304" t="n">
-        <v>303</v>
-      </c>
-      <c r="E304" t="s">
-        <v>523</v>
-      </c>
-      <c r="F304" t="s">
-        <v>524</v>
-      </c>
-      <c r="G304" t="n">
         <v>1</v>
       </c>
     </row>

--- a/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
+++ b/xlsx/_wiki_中华人民共和国国务院办公厅_intext.xlsx
@@ -8325,7 +8325,7 @@
         <v>497</v>
       </c>
       <c r="G278" t="n">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="279" spans="1:7">
@@ -8509,7 +8509,7 @@
         <v>161</v>
       </c>
       <c r="G286" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="287" spans="1:7">
